--- a/homework/92.xlsx
+++ b/homework/92.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="643" documentId="13_ncr:1_{6397D056-7233-42F8-9329-AC4D59D3BBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00688BB3-A87C-4260-9F44-09498552B7C9}"/>
+  <xr:revisionPtr revIDLastSave="669" documentId="13_ncr:1_{6397D056-7233-42F8-9329-AC4D59D3BBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8A4D9F3D-1B51-41F2-9D27-69A69719A014}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="3750" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14970" yWindow="9720" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>92.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,98 @@
   </si>
   <si>
     <t>92.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who breaks into a house to steal things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a customer is someone who buys something from a shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a shoplifter is some who steals from a shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a coward is someone who is not brave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an atheist is someone who doesn't believe in God</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a pessimist is someone who expects the worst to happen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a tenant is someone who pays rent to live in a house or apartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the waitress who served us was impolite and impatient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building which was destroyed in the fire has now been rebuilt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>people who were arrested have now been released</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus which goes to the airport runs every half hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>which were hanging on the wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>which cannot be explained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who stole my wallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that gives you the meaning of words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who invented the telephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that can support life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who runs away from home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>which sells bread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the driver who</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we live in a world that is changing all the time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horse that won the race</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +203,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -127,7 +219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -450,7 +542,7 @@
   <dimension ref="A3:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -472,37 +564,57 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>3</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>4</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>5</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>6</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="5">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="5">
         <v>8</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
@@ -517,106 +629,157 @@
       <c r="B13" s="5">
         <v>2</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" s="5">
         <v>3</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" s="5">
         <v>4</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" s="5">
         <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="5">
         <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
